--- a/evaluation32_32_16.xlsx
+++ b/evaluation32_32_16.xlsx
@@ -16,6 +16,37 @@
     <sheet name="data126" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="data42" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="data35" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="data43" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="data58" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="data136" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="data129" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="data26" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="data38" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="data30" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="data188" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="data61" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="data21" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="data198" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="data134" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="data60" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="data36" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="data34" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="data180" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="data125" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="data135" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="data2" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="data67" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="data56" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="data29" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="data51" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="data100" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="data120" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="data3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="data124" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="data75" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="data98" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="data65" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="data48" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,6 +613,1556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6073332863552017</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7439291057659109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6687271269510791</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34756</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3210771225875353</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2011373411067572</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2473336271485236</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8669246753246753</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8669246753246753</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8669246753246753</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8669246753246753</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.642803469647579</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6483554822908894</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6386869180332009</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8553004445081982</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8669246753246753</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.858368745485827</v>
+      </c>
+      <c r="E7" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>150131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5583249429798426</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7577456147689562</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6429264368360031</v>
+      </c>
+      <c r="E3" t="n">
+        <v>35859</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4996544176938141</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2875372886973815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3650172515358074</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8603719467061436</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8603719467061436</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8603719467061436</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8603719467061436</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6859931202245523</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6817609678221125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6693145627906034</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8568955769436368</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8603719467061436</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.852138552818919</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.637024744985114</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7748753265257659</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.699220528754721</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33688</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5270346117867165</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3623151125401929</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.429420731707317</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23325</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8943948086146901</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8943948086146901</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8943948086146901</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8943948086146901</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7213531189239434</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7123968130219862</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7095470868206792</v>
+      </c>
+      <c r="E6" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8906243389870389</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8943948086146901</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8897704304512472</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>117966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6308922782590211</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7505532022507428</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6855402205924814</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4609972677595628</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3269864341085271</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3825963718820862</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8720512218045112</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8720512218045112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8720512218045112</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8720512218045112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.697296515339528</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6925132121197567</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6893788641581892</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8660633807389758</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8720512218045112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8667126906359776</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>109771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.56321527526804</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8341957355696316</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6724317716011651</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22418</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4320855614973262</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1631758121285558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2368906014407774</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.878143392188336</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.878143392188336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.878143392188336</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.878143392188336</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6651002789217887</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6657905158993959</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6364407910139809</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8686840215841967</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.878143392188336</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8624339651506491</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>109079</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6732272342028439</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7927771411673382</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7281276523510439</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27053</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3469245107176142</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2224380041828503</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2710722738030221</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8928838951310861</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8928838951310861</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8928838951310861</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8928838951310861</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.673383914973486</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6717383817833963</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6663999753846886</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8823999579746987</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8928838951310861</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.885541419079238</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>103024</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6253540333578097</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8176238642208126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.708679435933251</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3640602582496413</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1756967284057469</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2370110916520724</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6631380972024836</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6644401975421864</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6485635091951077</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8532101305417673</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8547369915624354</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>119056</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.638420561260915</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7861901058397863</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7046415420284584</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29573</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4456426442223391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2785052873815134</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3427858515696126</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8832034995206136</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8832034995206136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8832034995206136</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8832034995206136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6946877351610846</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6882317977404332</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6824757978660236</v>
+      </c>
+      <c r="E6" t="n">
+        <v>166880</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8752962317705595</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8832034995206136</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8757822920625876</v>
+      </c>
+      <c r="E7" t="n">
+        <v>166880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5997436579526493</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7602464669997854</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6705239820472612</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32621</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4140695235241235</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2503397046833952</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3120307119065093</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8915353805073432</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8915353805073432</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8915353805073432</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8915353805073432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6712710604922577</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6701953905610601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6608515646512568</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8843216057251401</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8915353805073432</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8845713256601495</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>111142</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5536233697181997</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8410224735116644</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6677102980007544</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21047</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4775956284153006</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1765045294558883</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2577519379844961</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8821696094168004</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8821696094168004</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8821696094168004</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8821696094168004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6770729993778334</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6725090009891842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6418207453284168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.876613970696392</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8821696094168004</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8671909943768805</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -730,6 +2311,1556 @@
       </c>
       <c r="E7" t="n">
         <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.667957215040357</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8314817840222186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7408027364360831</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24484</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4671316027379568</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2633034869331004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3367783985102421</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13737</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8956336996336997</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8956336996336997</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8956336996336997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8956336996336997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7116962725927714</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6982617569851063</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6925270449821084</v>
+      </c>
+      <c r="E6" t="n">
+        <v>136500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8868150276912778</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8956336996336997</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8867629235108884</v>
+      </c>
+      <c r="E7" t="n">
+        <v>136500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>154949</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6485661272518026</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.803059384633281</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7175915699751828</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34386</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5525307255186996</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3584994640943194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4348527002782183</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23325</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8977946017116524</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8977946017116524</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8977946017116524</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8977946017116524</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7336989509235008</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7205196162425335</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7174814234178003</v>
+      </c>
+      <c r="E6" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8940956175322305</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8977946017116524</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8923494919550272</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>145793</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5906064321418466</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7789387267706546</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6718233703814959</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40197</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4878976486860304</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2806098773616175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3562981356003535</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8584844559585493</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8584844559585493</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8584844559585493</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8584844559585493</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6928346936092923</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6865162013774241</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6760405019939498</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8523939619432983</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8584844559585493</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8491293429417452</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6404036419813957</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8244329722410291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7208583849782629</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23632</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3710777626193724</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1828503137137735</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2449837378033525</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8990837346174425</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8990837346174425</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8990837346174425</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8990837346174425</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6704938015335893</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6690944286516008</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6552807075938718</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8868513105487728</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8990837346174425</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8882769371021777</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>112516</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6505819829806658</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8449356368563685</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7351299574483763</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.421759039949471</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1995070212130266</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2708787586836368</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9038322632423756</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9038322632423756</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9038322632423756</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9038322632423756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6907803409767123</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6814808860231317</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6686695720440042</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8930354075502602</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9038322632423756</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8928795739456754</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57094</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6535727849818241</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7688772579306823</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.706551703912253</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.328822984244671</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2174286064468685</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.261767743839457</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8159</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8763470093919921</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8763470093919921</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8763470093919921</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8763470093919921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.660798589742165</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.662101954792517</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6561064825839034</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80920</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8652544680025025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8763470093919921</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8687507237664285</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>115374</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6406784425807056</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7990416642318705</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7111504056584148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.435303776683087</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2568798449612403</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3230956733698964</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8695018796992481</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8695018796992481</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8695018796992481</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8695018796992481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6919940730879309</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.685307169731037</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6780820263427705</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8592958783276912</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8695018796992481</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8598597772698519</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>146395</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.691353657267714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7737074988355845</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7302159459310951</v>
+      </c>
+      <c r="E3" t="n">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4663920922570016</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3641157556270097</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4089563019140484</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23325</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8845622119815668</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8845622119815668</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8845622119815668</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8845622119815668</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7192485831749051</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7126077514875314</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7130574159483811</v>
+      </c>
+      <c r="E6" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8791513288581313</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8845622119815668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8806986667000207</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5531125071387778</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7989276139410187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6536741753142664</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3396545885540129</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1380972050117031</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1963586530931871</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8738863287250384</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8738863287250384</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8738863287250384</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8738863287250384</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6309223652309303</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6456749396509073</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6166776094691512</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8597541685238043</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8738863287250384</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8587478502244789</v>
+      </c>
+      <c r="E7" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>161627</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6506252592899899</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8033662641785584</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7189730827166153</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40995</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.352738076120122</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1989763565540357</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2544306729989575</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8854205607476635</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8854205607476635</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8854205607476635</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8854205607476635</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6677877784700373</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6674475402441981</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.657801251905191</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8726619214471437</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8854205607476635</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8754722827077821</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
       </c>
     </row>
   </sheetData>
@@ -892,6 +4023,1556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>153803</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5327419039975707</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7630720477211297</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6274364542087113</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5308231819859727</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2859794497845542</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3717042908840256</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8650629163582532</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8650629163582532</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8650629163582532</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8650629163582532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6878550286611812</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6830171658352279</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6663802483642457</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8649393924152784</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8650629163582532</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8568311232771412</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6073715584147313</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7687021475256769</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6785796709637005</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26775</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3939720129171152</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2323005019906526</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2922686025408348</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8695960406634564</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8695960406634564</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8695960406634564</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8695960406634564</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6671145237772822</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6670008831721098</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6569494245015118</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8594455753907233</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8695960406634564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8604084927814893</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155920</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5217343287538101</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7855337545726638</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6270174134635804</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30070</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5690899371909662</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.282300298309579</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3773927685218008</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8699944485566248</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8699944485566248</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8699944485566248</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8699944485566248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6969414219815921</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6892780176274144</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6681367273284603</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8733252899272692</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8699944485566248</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8612155507455245</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6408031308490727</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8221989345908655</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7202555128425804</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3951277480689245</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2012864169504351</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2667067729483131</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8783718609679029</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8783718609679029</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8783718609679029</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8783718609679029</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6786436263059991</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6744951171804335</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6623207619302978</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8651279435675728</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8783718609679029</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8661468631268313</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>136171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6006998764923837</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7732379438261792</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6761353104726598</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4654256980448498</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2775149912473462</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3477063792057491</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8607491532177725</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8607491532177725</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8607491532177725</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8607491532177725</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6887085248457444</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6835843116911752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6746138965594697</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8534450483444347</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8607491532177725</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8518824227561932</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>92554</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6066344563701807</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8091695501730104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6934153709297801</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3518436903187895</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1648767726834641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2245347583555993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.872941628264209</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.872941628264209</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.872941628264209</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.872941628264209</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6528260488963235</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6580154409521582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6393167097617931</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8578361757054478</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.872941628264209</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8590426672486172</v>
+      </c>
+      <c r="E7" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123505</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5866296615649924</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8342977581912244</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6888793962694006</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26095</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5506598773771173</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.256734496124031</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.350196609721442</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8844866071428571</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8844866071428571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8844866071428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8844866071428571</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7124298463140365</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6970107514384184</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6796920019969476</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8821588398002946</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8844866071428571</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8735277600464084</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5966648049150244</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7938850257444663</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6812891470219794</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4632662934549727</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2489692827693794</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3238790104367994</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26923</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8612768910478834</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8612768910478834</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8612768910478834</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8612768910478834</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6866436994566657</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.680951436171282</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.668389385819593</v>
+      </c>
+      <c r="E6" t="n">
+        <v>201740</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8530418109362374</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8612768910478834</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8502449047263015</v>
+      </c>
+      <c r="E7" t="n">
+        <v>201740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>85944</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6110128181982307</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8019525140988579</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6935814411017296</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3688264612596285</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1847900113507378</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2462189957652753</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8756693830034924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8756693830034924</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8756693830034924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8756693830034924</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.659946426485953</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6622475084831986</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6466001456223349</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8623900146544724</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8756693830034924</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8634046733554441</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>156933</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6689864657028607</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.76162752522489</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7123074561179059</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.308551837978541</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2201286348401123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2569457294668112</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8749043168669337</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8749043168669337</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8749043168669337</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8749043168669337</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6591794345604672</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6605853866883341</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.656417728528239</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8647553631970994</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8749043168669337</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8684933830785014</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1040,6 +5721,161 @@
       </c>
       <c r="E7" t="n">
         <v>200760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137592</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5835115508448685</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7306515213936791</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6488442893915043</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2592862345229425</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.153110962439071</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1925307213892979</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8603896103896104</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8603896103896104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8603896103896104</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8603896103896104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.614265928455937</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.62792082794425</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6137916702602674</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8459569520230515</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8603896103896104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8502333741189327</v>
+      </c>
+      <c r="E7" t="n">
+        <v>192500</v>
       </c>
     </row>
   </sheetData>
